--- a/inertia_sim/2030_scenario/powerflow_Statnett.xlsx
+++ b/inertia_sim/2030_scenario/powerflow_Statnett.xlsx
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1017</v>
+        <v>963</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>-1372</v>
+        <v>-1400</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>-1603</v>
+        <v>-500</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>1099</v>
+        <v>-400</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>590</v>
+        <v>-700</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>-340</v>
+        <v>-550</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>-246</v>
+        <v>-377</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>363</v>
+        <v>-600</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
@@ -519,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>733</v>
+        <v>700</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>420</v>
+        <v>-500</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">

--- a/inertia_sim/2030_scenario/powerflow_Statnett.xlsx
+++ b/inertia_sim/2030_scenario/powerflow_Statnett.xlsx
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>963</v>
+        <v>750</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>-700</v>
+        <v>-300</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -519,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>700</v>
+        <v>-500</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">

--- a/inertia_sim/2030_scenario/powerflow_Statnett.xlsx
+++ b/inertia_sim/2030_scenario/powerflow_Statnett.xlsx
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>750</v>
+        <v>760</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">

--- a/inertia_sim/2030_scenario/powerflow_Statnett.xlsx
+++ b/inertia_sim/2030_scenario/powerflow_Statnett.xlsx
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
